--- a/OneDayProject/가공식품영양정보_테이블명세_0510.xlsx
+++ b/OneDayProject/가공식품영양정보_테이블명세_0510.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="식품정보" sheetId="2" r:id="rId1"/>
     <sheet name="제조사정보" sheetId="8" r:id="rId2"/>
     <sheet name="식품분류" sheetId="9" r:id="rId3"/>
     <sheet name="일일섭취정보" sheetId="11" r:id="rId4"/>
+    <sheet name="변수식별자 설정" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="122">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -432,6 +433,46 @@
   <si>
     <t>mf_seq</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_code</t>
+  </si>
+  <si>
+    <t>f_name</t>
+  </si>
+  <si>
+    <t>f_year</t>
+  </si>
+  <si>
+    <t>f_ccode</t>
+  </si>
+  <si>
+    <t>f_icode</t>
+  </si>
+  <si>
+    <t>f_one</t>
+  </si>
+  <si>
+    <t>f_total</t>
+  </si>
+  <si>
+    <t>f_energy</t>
+  </si>
+  <si>
+    <t>f_protein</t>
+  </si>
+  <si>
+    <t>f_fat</t>
+  </si>
+  <si>
+    <t>f_carbon</t>
+  </si>
+  <si>
+    <t>f_sugar</t>
   </si>
 </sst>
 </file>
@@ -776,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -864,6 +905,9 @@
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1149,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2276,7 +2320,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H7"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3303,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H7"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4332,7 +4376,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H6"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5379,4 +5423,256 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>